--- a/data_warehouse.xlsx
+++ b/data_warehouse.xlsx
@@ -127,7 +127,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -135,7 +135,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -152,6 +152,19 @@
       <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Fecha accidente</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>21-01-2019</t>
         </is>
       </c>
     </row>
@@ -1115,7 +1128,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1124,8 +1137,8 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.0"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="22.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1152,6 +1165,27 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>Hora</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>21-09-2009</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>1899-12-30 12:00:00</t>
         </is>
       </c>
     </row>
@@ -1169,7 +1203,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1200,6 +1234,22 @@
       <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Fecha de emisión</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>21-09-2009</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1267,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1310,41 +1360,41 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>120.0</v>
+        <v>25.0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -1353,179 +1403,213 @@
         <v>20.0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120.0</v>
+        <v>25.0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>20.0</v>
+        <v>123.0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E10" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>120.0</v>
+        <v>20.0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E13" s="0" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>20.0</v>
+        <v>25.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>20.0</v>
+        <v>120.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>20.0</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0" t="n">
+        <v>18</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>25.0</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>28</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="B17" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="0" t="n">
+      <c r="B19" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" s="0" t="n">
         <v>25.0</v>
       </c>
-      <c r="D17" s="0" t="n">
+      <c r="D19" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E17" s="0" t="n">
+      <c r="E19" s="0" t="n">
         <v>19</v>
       </c>
     </row>
@@ -1543,7 +1627,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -1721,10 +1805,10 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>5024</v>
+        <v>5023</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
@@ -1733,21 +1817,21 @@
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>Sofá Curvo</t>
+          <t>Silla TipoPiel </t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>Arena</t>
+          <t> RTA919VBK</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>5025</v>
+        <v>5024</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
@@ -1756,21 +1840,21 @@
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>Sofá ejecutivo</t>
+          <t>Sofá Curvo</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>BM912</t>
+          <t>Arena</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>5026</v>
+        <v>5025</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
@@ -1779,21 +1863,21 @@
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>Cama matrimonial</t>
+          <t>Sofá ejecutivo</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>Craftwan</t>
+          <t>BM912</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>5027</v>
+        <v>5026</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
@@ -1807,16 +1891,16 @@
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>Giorgetti</t>
+          <t>Craftwan</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>5028</v>
+        <v>5027</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
@@ -1825,21 +1909,21 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>Multi funcional</t>
+          <t>Cama matrimonial</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>Giorgetti</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>5029</v>
+        <v>5028</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
@@ -1848,21 +1932,21 @@
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>Pintarrones</t>
+          <t>Multi funcional</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>Berol</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>5030</v>
+        <v>5029</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
@@ -1871,21 +1955,21 @@
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>Ventilador</t>
+          <t>Pintarrones</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
         <is>
-          <t>Super Fan</t>
+          <t>Berol</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>5031</v>
+        <v>5030</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
@@ -1894,21 +1978,21 @@
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>Bocinas</t>
+          <t>Ventilador</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
         <is>
-          <t>Bosseee</t>
+          <t>Super Fan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>5032</v>
+        <v>5031</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
@@ -1917,21 +2001,21 @@
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>Television</t>
+          <t>Bocinas</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>Bosseee</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>5033</v>
+        <v>5032</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
@@ -1940,7 +2024,7 @@
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Microondas</t>
+          <t>Television</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -1951,10 +2035,10 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>5034</v>
+        <v>5033</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
@@ -1963,21 +2047,21 @@
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Tina</t>
+          <t>Microondas</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>H&amp;E</t>
+          <t>Samsung</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>5035</v>
+        <v>5034</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
@@ -1986,21 +2070,21 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Aire acondicionado</t>
+          <t>Tina</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>AirWeeeek P12</t>
+          <t>H&amp;E</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>5036</v>
+        <v>5035</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
@@ -2009,21 +2093,21 @@
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Ventilador de techo</t>
+          <t>Aire acondicionado</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>AirWeeeek AR-2</t>
+          <t>AirWeeeek P12</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>5037</v>
+        <v>5036</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
@@ -2032,21 +2116,21 @@
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>Base individual</t>
+          <t>Ventilador de techo</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo I</t>
+          <t>AirWeeeek AR-2</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>5038</v>
+        <v>5037</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
@@ -2055,21 +2139,21 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Base matromonial</t>
+          <t>Base individual</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo MA-1</t>
+          <t>Dormimundo I</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>5039</v>
+        <v>5038</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
@@ -2078,21 +2162,21 @@
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>Colchon matromonial</t>
+          <t>Base matromonial</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo CM-0</t>
+          <t>Dormimundo MA-1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>5040</v>
+        <v>5039</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
@@ -2101,21 +2185,21 @@
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>Colchon king size</t>
+          <t>Colchon matromonial</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo KS-5</t>
+          <t>Dormimundo CM-0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>5041</v>
+        <v>5040</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
@@ -2124,78 +2208,90 @@
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>Colchon individualHELPPLS</t>
+          <t>Colchon king size</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo I-0</t>
+          <t>Dormimundo KS-5</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>5044</v>
+        <v>5041</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>turbolicuadora</t>
-        </is>
-      </c>
-      <c r="E26" s="0"/>
+          <t>Colchon individualHELPPLS</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>Dormimundo I-0</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>5045</v>
+        <v>5042</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>licuadora</t>
-        </is>
-      </c>
-      <c r="E27" s="0"/>
+          <t>Cama matrimonial</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>MissuraEmme</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>5046</v>
+        <v>5043</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>R</t>
+          <t>RH</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>arrocera</t>
-        </is>
-      </c>
-      <c r="E28" s="0"/>
+          <t>Escritorio cristal L</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>Templade Super</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>5047</v>
+        <v>5044</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
@@ -2204,17 +2300,17 @@
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>batidora</t>
+          <t>turbolicuadora</t>
         </is>
       </c>
       <c r="E29" s="0"/>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>5048</v>
+        <v>5045</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
@@ -2223,17 +2319,17 @@
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>extractor</t>
+          <t>licuadora</t>
         </is>
       </c>
       <c r="E30" s="0"/>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>5049</v>
+        <v>5046</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
@@ -2242,17 +2338,17 @@
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>refrigerador</t>
+          <t>arrocera</t>
         </is>
       </c>
       <c r="E31" s="0"/>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>5050</v>
+        <v>5047</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
@@ -2261,17 +2357,17 @@
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>horno</t>
+          <t>batidora</t>
         </is>
       </c>
       <c r="E32" s="0"/>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>5051</v>
+        <v>5048</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
@@ -2280,17 +2376,17 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>horno de microondas</t>
+          <t>extractor</t>
         </is>
       </c>
       <c r="E33" s="0"/>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>5052</v>
+        <v>5049</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
@@ -2299,17 +2395,17 @@
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>procesador</t>
+          <t>refrigerador</t>
         </is>
       </c>
       <c r="E34" s="0"/>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>5053</v>
+        <v>5050</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
@@ -2318,17 +2414,17 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>tostador</t>
+          <t>horno</t>
         </is>
       </c>
       <c r="E35" s="0"/>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>5054</v>
+        <v>5051</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
@@ -2337,17 +2433,17 @@
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>rebanadora</t>
+          <t>horno de microondas</t>
         </is>
       </c>
       <c r="E36" s="0"/>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>5055</v>
+        <v>5052</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
@@ -2356,17 +2452,17 @@
       </c>
       <c r="D37" s="0" t="inlineStr">
         <is>
-          <t>cafetera</t>
+          <t>procesador</t>
         </is>
       </c>
       <c r="E37" s="0"/>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>5057</v>
+        <v>5053</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
@@ -2375,17 +2471,17 @@
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>balanza</t>
+          <t>tostador</t>
         </is>
       </c>
       <c r="E38" s="0"/>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>5058</v>
+        <v>5054</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
@@ -2394,17 +2490,17 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>espatula</t>
+          <t>rebanadora</t>
         </is>
       </c>
       <c r="E39" s="0"/>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>5059</v>
+        <v>5055</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
@@ -2413,17 +2509,17 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>rallador</t>
+          <t>cafetera</t>
         </is>
       </c>
       <c r="E40" s="0"/>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>5060</v>
+        <v>5057</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
@@ -2432,17 +2528,17 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>pelador</t>
+          <t>balanza</t>
         </is>
       </c>
       <c r="E41" s="0"/>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>5061</v>
+        <v>5058</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
@@ -2451,17 +2547,17 @@
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>estufa</t>
+          <t>espatula</t>
         </is>
       </c>
       <c r="E42" s="0"/>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>5062</v>
+        <v>5059</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
@@ -2470,17 +2566,17 @@
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>plancha</t>
+          <t>rallador</t>
         </is>
       </c>
       <c r="E43" s="0"/>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>5063</v>
+        <v>5060</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
@@ -2489,17 +2585,17 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>parrilla</t>
+          <t>pelador</t>
         </is>
       </c>
       <c r="E44" s="0"/>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>5064</v>
+        <v>5061</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
@@ -2508,17 +2604,17 @@
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>congelador</t>
+          <t>estufa</t>
         </is>
       </c>
       <c r="E45" s="0"/>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>5065</v>
+        <v>5062</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
@@ -2527,17 +2623,17 @@
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>maquina lava trastes</t>
+          <t>plancha</t>
         </is>
       </c>
       <c r="E46" s="0"/>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>5066</v>
+        <v>5063</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
@@ -2546,17 +2642,17 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>freidora</t>
+          <t>parrilla</t>
         </is>
       </c>
       <c r="E47" s="0"/>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>5067</v>
+        <v>5064</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
@@ -2565,17 +2661,17 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>asador</t>
+          <t>congelador</t>
         </is>
       </c>
       <c r="E48" s="0"/>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>5068</v>
+        <v>5065</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
@@ -2584,17 +2680,17 @@
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>batidor</t>
+          <t>maquina lava trastes</t>
         </is>
       </c>
       <c r="E49" s="0"/>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>5070</v>
+        <v>5066</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
@@ -2603,17 +2699,17 @@
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>comal</t>
+          <t>freidora</t>
         </is>
       </c>
       <c r="E50" s="0"/>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>5071</v>
+        <v>5067</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
@@ -2622,17 +2718,17 @@
       </c>
       <c r="D51" s="0" t="inlineStr">
         <is>
-          <t>colador</t>
+          <t>asador</t>
         </is>
       </c>
       <c r="E51" s="0"/>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>5072</v>
+        <v>5068</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
@@ -2641,17 +2737,17 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>cubeta</t>
+          <t>batidor</t>
         </is>
       </c>
       <c r="E52" s="0"/>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>5073</v>
+        <v>5070</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
@@ -2660,17 +2756,17 @@
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>cucharon</t>
+          <t>comal</t>
         </is>
       </c>
       <c r="E53" s="0"/>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>5075</v>
+        <v>5071</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
@@ -2679,17 +2775,17 @@
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>dispensador de agua</t>
+          <t>colador</t>
         </is>
       </c>
       <c r="E54" s="0"/>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>5076</v>
+        <v>5072</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
@@ -2698,17 +2794,17 @@
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>embudo</t>
+          <t>cubeta</t>
         </is>
       </c>
       <c r="E55" s="0"/>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>5077</v>
+        <v>5073</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
@@ -2717,17 +2813,17 @@
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>infusor</t>
+          <t>cucharon</t>
         </is>
       </c>
       <c r="E56" s="0"/>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>5078</v>
+        <v>5074</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
@@ -2736,17 +2832,21 @@
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>jarra</t>
-        </is>
-      </c>
-      <c r="E57" s="0"/>
+          <t>cuchillo</t>
+        </is>
+      </c>
+      <c r="E57" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
-        <v>5079</v>
+        <v>5075</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
@@ -2755,17 +2855,17 @@
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>medidor</t>
+          <t>dispensador de agua</t>
         </is>
       </c>
       <c r="E58" s="0"/>
     </row>
     <row r="59">
       <c r="A59" s="0" t="n">
-        <v>5080</v>
+        <v>5076</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
@@ -2774,17 +2874,17 @@
       </c>
       <c r="D59" s="0" t="inlineStr">
         <is>
-          <t>olla</t>
+          <t>embudo</t>
         </is>
       </c>
       <c r="E59" s="0"/>
     </row>
     <row r="60">
       <c r="A60" s="0" t="n">
-        <v>5081</v>
+        <v>5077</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
@@ -2793,17 +2893,17 @@
       </c>
       <c r="D60" s="0" t="inlineStr">
         <is>
-          <t>olla de presion</t>
+          <t>infusor</t>
         </is>
       </c>
       <c r="E60" s="0"/>
     </row>
     <row r="61">
       <c r="A61" s="0" t="n">
-        <v>5082</v>
+        <v>5078</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
@@ -2812,17 +2912,17 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>pica hielo</t>
+          <t>jarra</t>
         </is>
       </c>
       <c r="E61" s="0"/>
     </row>
     <row r="62">
       <c r="A62" s="0" t="n">
-        <v>5083</v>
+        <v>5079</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
@@ -2831,17 +2931,17 @@
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>pinzas</t>
+          <t>medidor</t>
         </is>
       </c>
       <c r="E62" s="0"/>
     </row>
     <row r="63">
       <c r="A63" s="0" t="n">
-        <v>5085</v>
+        <v>5080</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
@@ -2850,17 +2950,17 @@
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>sarten</t>
+          <t>olla</t>
         </is>
       </c>
       <c r="E63" s="0"/>
     </row>
     <row r="64">
       <c r="A64" s="0" t="n">
-        <v>5086</v>
+        <v>5081</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
@@ -2869,17 +2969,17 @@
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>servilletero</t>
+          <t>olla de presion</t>
         </is>
       </c>
       <c r="E64" s="0"/>
     </row>
     <row r="65">
       <c r="A65" s="0" t="n">
-        <v>5087</v>
+        <v>5082</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
@@ -2888,17 +2988,17 @@
       </c>
       <c r="D65" s="0" t="inlineStr">
         <is>
-          <t>tabla para picar</t>
+          <t>pica hielo</t>
         </is>
       </c>
       <c r="E65" s="0"/>
     </row>
     <row r="66">
       <c r="A66" s="0" t="n">
-        <v>5088</v>
+        <v>5083</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
@@ -2907,17 +3007,17 @@
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>termometro</t>
+          <t>pinzas</t>
         </is>
       </c>
       <c r="E66" s="0"/>
     </row>
     <row r="67">
       <c r="A67" s="0" t="n">
-        <v>5089</v>
+        <v>5085</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
@@ -2926,17 +3026,17 @@
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>timbres</t>
+          <t>sarten</t>
         </is>
       </c>
       <c r="E67" s="0"/>
     </row>
     <row r="68">
       <c r="A68" s="0" t="n">
-        <v>5090</v>
+        <v>5086</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
@@ -2945,17 +3045,17 @@
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>timer</t>
+          <t>servilletero</t>
         </is>
       </c>
       <c r="E68" s="0"/>
     </row>
     <row r="69">
       <c r="A69" s="0" t="n">
-        <v>5092</v>
+        <v>5087</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
@@ -2964,17 +3064,17 @@
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>rodillo ponchador</t>
+          <t>tabla para picar</t>
         </is>
       </c>
       <c r="E69" s="0"/>
     </row>
     <row r="70">
       <c r="A70" s="0" t="n">
-        <v>5093</v>
+        <v>5088</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
@@ -2983,93 +3083,93 @@
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>tenedor de cocina</t>
+          <t>termometro</t>
         </is>
       </c>
       <c r="E70" s="0"/>
     </row>
     <row r="71">
       <c r="A71" s="0" t="n">
-        <v>5094</v>
+        <v>5089</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>Aire Acondicionado</t>
+          <t>timbres</t>
         </is>
       </c>
       <c r="E71" s="0"/>
     </row>
     <row r="72">
       <c r="A72" s="0" t="n">
-        <v>5095</v>
+        <v>5090</v>
       </c>
       <c r="B72" s="0" t="n">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>Ventilador de techo</t>
+          <t>timer</t>
         </is>
       </c>
       <c r="E72" s="0"/>
     </row>
     <row r="73">
       <c r="A73" s="0" t="n">
-        <v>5097</v>
+        <v>5092</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>Base matriminial</t>
+          <t>rodillo ponchador</t>
         </is>
       </c>
       <c r="E73" s="0"/>
     </row>
     <row r="74">
       <c r="A74" s="0" t="n">
-        <v>5098</v>
+        <v>5093</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>R</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>Colchon Individual</t>
+          <t>tenedor de cocina</t>
         </is>
       </c>
       <c r="E74" s="0"/>
     </row>
     <row r="75">
       <c r="A75" s="0" t="n">
-        <v>5099</v>
+        <v>5094</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
@@ -3078,29 +3178,128 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>Colchon Matrimonial</t>
+          <t>Aire Acondicionado</t>
         </is>
       </c>
       <c r="E75" s="0"/>
     </row>
     <row r="76">
       <c r="A76" s="0" t="n">
+        <v>5095</v>
+      </c>
+      <c r="B76" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C76" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D76" s="0" t="inlineStr">
+        <is>
+          <t>Ventilador de techo</t>
+        </is>
+      </c>
+      <c r="E76" s="0"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="0" t="n">
+        <v>5096</v>
+      </c>
+      <c r="B77" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C77" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D77" s="0" t="inlineStr">
+        <is>
+          <t>Base individuaL</t>
+        </is>
+      </c>
+      <c r="E77" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="0" t="n">
+        <v>5097</v>
+      </c>
+      <c r="B78" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C78" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D78" s="0" t="inlineStr">
+        <is>
+          <t>Base matriminial</t>
+        </is>
+      </c>
+      <c r="E78" s="0"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="0" t="n">
+        <v>5098</v>
+      </c>
+      <c r="B79" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="C79" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D79" s="0" t="inlineStr">
+        <is>
+          <t>Colchon Individual</t>
+        </is>
+      </c>
+      <c r="E79" s="0"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="0" t="n">
+        <v>5099</v>
+      </c>
+      <c r="B80" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" s="0" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="D80" s="0" t="inlineStr">
+        <is>
+          <t>Colchon Matrimonial</t>
+        </is>
+      </c>
+      <c r="E80" s="0"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="0" t="n">
         <v>5100</v>
       </c>
-      <c r="B76" s="0" t="n">
+      <c r="B81" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C76" s="0" t="inlineStr">
+      <c r="C81" s="0" t="inlineStr">
         <is>
           <t>H</t>
         </is>
       </c>
-      <c r="D76" s="0" t="inlineStr">
+      <c r="D81" s="0" t="inlineStr">
         <is>
           <t>Colchon King siza</t>
         </is>
       </c>
-      <c r="E76" s="0"/>
+      <c r="E81" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
@@ -3372,18 +3571,18 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="6.6000000000000005"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="6" max="6" bestFit="1" customWidth="1" width="7.700000000000001"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="6" max="6" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
@@ -3421,6 +3620,32 @@
       <c r="G1" s="0" t="inlineStr">
         <is>
           <t>Fecha final garantía</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>841</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>C02SW0AAGVH3</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>12-09-2009</t>
         </is>
       </c>
     </row>
@@ -3438,7 +3663,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D52"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -3474,21 +3699,21 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>1</v>
@@ -3497,12 +3722,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>1</v>
@@ -3511,12 +3736,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>1</v>
@@ -3525,54 +3750,54 @@
         <v>1</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>1</v>
@@ -3581,12 +3806,12 @@
         <v>2</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>1</v>
@@ -3595,26 +3820,26 @@
         <v>2</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>1</v>
@@ -3623,12 +3848,12 @@
         <v>3</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>1</v>
@@ -3637,12 +3862,12 @@
         <v>3</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>1</v>
@@ -3651,40 +3876,40 @@
         <v>3</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C15" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="D15" s="0" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>1</v>
@@ -3693,12 +3918,12 @@
         <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>1</v>
@@ -3707,12 +3932,12 @@
         <v>4</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
@@ -3721,12 +3946,12 @@
         <v>4</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
@@ -3735,12 +3960,12 @@
         <v>4</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
@@ -3749,12 +3974,12 @@
         <v>4</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
@@ -3763,40 +3988,40 @@
         <v>4</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
@@ -3805,12 +4030,12 @@
         <v>5</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>1</v>
@@ -3819,12 +4044,12 @@
         <v>5</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>1</v>
@@ -3833,12 +4058,12 @@
         <v>5</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>1</v>
@@ -3847,12 +4072,12 @@
         <v>5</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>1</v>
@@ -3861,12 +4086,12 @@
         <v>5</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
@@ -3875,40 +4100,40 @@
         <v>5</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
@@ -3917,12 +4142,12 @@
         <v>6</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>1</v>
@@ -3931,12 +4156,12 @@
         <v>6</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
@@ -3945,40 +4170,40 @@
         <v>6</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C36" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="C36" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="D36" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
@@ -3987,12 +4212,12 @@
         <v>7</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>1</v>
@@ -4001,12 +4226,12 @@
         <v>7</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B40" s="0" t="n">
         <v>1</v>
@@ -4015,12 +4240,12 @@
         <v>7</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>1</v>
@@ -4029,12 +4254,12 @@
         <v>7</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>1</v>
@@ -4043,12 +4268,12 @@
         <v>7</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>1</v>
@@ -4057,12 +4282,12 @@
         <v>7</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>1</v>
@@ -4071,40 +4296,40 @@
         <v>7</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>1</v>
@@ -4113,12 +4338,12 @@
         <v>8</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
@@ -4127,26 +4352,26 @@
         <v>8</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
@@ -4155,12 +4380,12 @@
         <v>9</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
@@ -4169,12 +4394,12 @@
         <v>9</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
@@ -4183,6 +4408,20 @@
         <v>9</v>
       </c>
       <c r="D52" s="0" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="0" t="n">
+        <v>54</v>
+      </c>
+      <c r="B53" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="D53" s="0" t="n">
         <v>21</v>
       </c>
     </row>
@@ -4290,7 +4529,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -4374,89 +4613,99 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>HP</t>
+          <t>JM Romo </t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Truper</t>
+          <t>HP</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>ACADEM</t>
+          <t>Truper</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Merza</t>
+          <t>ACADEM</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>Dormimundo</t>
+          <t>Merza</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>AirMaxz</t>
+          <t>Dormimundo</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>Samsung</t>
+          <t>AirMaxz</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>SmasClub</t>
+          <t>Samsung</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>SmasClub</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="B16" s="0" t="inlineStr">
+      <c r="B17" s="0" t="inlineStr">
         <is>
           <t>iShop</t>
         </is>
@@ -4476,17 +4725,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="9.9"/>
     <col min="7" max="7" bestFit="1" customWidth="1" width="7.700000000000001"/>
   </cols>
@@ -4526,6 +4775,33 @@
         <is>
           <t>id_renta</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1579</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>18583.2</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>Contado</t>
+        </is>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4542,15 +4818,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
   </cols>
   <sheetData>
@@ -4574,6 +4850,22 @@
         <is>
           <t>Tipo pago</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1891</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2019</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4590,7 +4882,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -5166,10 +5458,10 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
@@ -5179,10 +5471,10 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C45" s="0" t="inlineStr">
         <is>
@@ -5192,10 +5484,10 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
@@ -5205,10 +5497,10 @@
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
@@ -5218,25 +5510,51 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>Activa</t>
+          <t>Inactiva</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C49" s="0" t="inlineStr">
+        <is>
+          <t>Activa</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="0" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C50" s="0" t="inlineStr">
+        <is>
+          <t>Activa</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="B49" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C49" s="0" t="inlineStr">
+      <c r="B51" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C51" s="0" t="inlineStr">
         <is>
           <t>Activa</t>
         </is>
@@ -7022,7 +7340,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G61"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -7426,24 +7744,24 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>azucar</t>
+          <t>tequila</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E16" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="F16" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>2</v>
@@ -7451,46 +7769,46 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>yerbabuena</t>
+          <t>azucar</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>jitomate</t>
+          <t>yerbabuena</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>2</v>
@@ -7501,11 +7819,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>cebolla</t>
+          <t>jitomate</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -7515,7 +7833,7 @@
         <v>15</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>2</v>
@@ -7526,21 +7844,21 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>pimiento rojo</t>
+          <t>cebolla</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>2</v>
@@ -7551,11 +7869,11 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>pimiento verde</t>
+          <t>pimiento rojo</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
@@ -7565,7 +7883,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>2</v>
@@ -7576,21 +7894,21 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>queso semiseco</t>
+          <t>pimiento verde</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>2</v>
@@ -7601,11 +7919,11 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>queso oaxaca</t>
+          <t>queso semiseco</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
@@ -7615,7 +7933,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>2</v>
@@ -7626,24 +7944,24 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>aceite de oliva</t>
+          <t>queso oaxaca</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1</v>
@@ -7651,24 +7969,24 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>almendra</t>
+          <t>aceite de oliva</t>
         </is>
       </c>
       <c r="C25" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1</v>
@@ -7676,11 +7994,11 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>nuez</t>
+          <t>almendra</t>
         </is>
       </c>
       <c r="C26" s="0" t="n">
@@ -7690,7 +8008,7 @@
         <v>9</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F26" s="0" t="n">
         <v>2</v>
@@ -7701,36 +8019,36 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>arroz</t>
+          <t>nuez</t>
         </is>
       </c>
       <c r="C27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="E27" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D27" s="0" t="n">
-        <v>10</v>
-      </c>
-      <c r="E27" s="0" t="n">
-        <v>8</v>
-      </c>
       <c r="F27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>avena</t>
+          <t>arroz</t>
         </is>
       </c>
       <c r="C28" s="0" t="n">
@@ -7740,7 +8058,7 @@
         <v>10</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F28" s="0" t="n">
         <v>2</v>
@@ -7751,46 +8069,46 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>bolillo</t>
+          <t>avena</t>
         </is>
       </c>
       <c r="C29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D29" s="0" t="n">
-        <v>50</v>
-      </c>
       <c r="E29" s="0" t="n">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="F29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>pechuga de pollo</t>
+          <t>totopos</t>
         </is>
       </c>
       <c r="C30" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F30" s="0" t="n">
         <v>2</v>
@@ -7801,21 +8119,21 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>pan integral</t>
+          <t>bolillo</t>
         </is>
       </c>
       <c r="C31" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="E31" s="0" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F31" s="0" t="n">
         <v>2</v>
@@ -7826,21 +8144,21 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>huevo</t>
+          <t>pechuga de pollo</t>
         </is>
       </c>
       <c r="C32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E32" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D32" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E32" s="0" t="n">
-        <v>10</v>
       </c>
       <c r="F32" s="0" t="n">
         <v>2</v>
@@ -7851,11 +8169,11 @@
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>leche</t>
+          <t>pan integral</t>
         </is>
       </c>
       <c r="C33" s="0" t="n">
@@ -7865,10 +8183,10 @@
         <v>15</v>
       </c>
       <c r="E33" s="0" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G33" s="0" t="n">
         <v>1</v>
@@ -7876,49 +8194,49 @@
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>café</t>
+          <t>huevo</t>
         </is>
       </c>
       <c r="C34" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D34" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="E34" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E34" s="0" t="n">
-        <v>7</v>
-      </c>
       <c r="F34" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>camaron</t>
+          <t>leche</t>
         </is>
       </c>
       <c r="C35" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E35" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G35" s="0" t="n">
         <v>1</v>
@@ -7926,36 +8244,36 @@
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>jamon</t>
+          <t>café</t>
         </is>
       </c>
       <c r="C36" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" s="0" t="n">
         <v>10</v>
       </c>
       <c r="E36" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F36" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>calabaza</t>
+          <t>camaron</t>
         </is>
       </c>
       <c r="C37" s="0" t="n">
@@ -7976,46 +8294,46 @@
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>soya</t>
+          <t>jamon</t>
         </is>
       </c>
       <c r="C38" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E38" s="0" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F38" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>pan de hamburguesa</t>
+          <t>calabaza</t>
         </is>
       </c>
       <c r="C39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E39" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="D39" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E39" s="0" t="n">
-        <v>8</v>
       </c>
       <c r="F39" s="0" t="n">
         <v>2</v>
@@ -8026,21 +8344,21 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>pasta</t>
+          <t>soya</t>
         </is>
       </c>
       <c r="C40" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="E40" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F40" s="0" t="n">
         <v>2</v>
@@ -8051,21 +8369,21 @@
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>carne molida</t>
+          <t>pan de hamburguesa</t>
         </is>
       </c>
       <c r="C41" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F41" s="0" t="n">
         <v>2</v>
@@ -8076,15 +8394,15 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>filete de pescado</t>
+          <t>pasta</t>
         </is>
       </c>
       <c r="C42" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" s="0" t="n">
         <v>10</v>
@@ -8096,20 +8414,20 @@
         <v>2</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>alitas de pollo</t>
+          <t>carne molida</t>
         </is>
       </c>
       <c r="C43" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" s="0" t="n">
         <v>10</v>
@@ -8126,15 +8444,15 @@
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>salchicha</t>
+          <t>filete de pescado</t>
         </is>
       </c>
       <c r="C44" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" s="0" t="n">
         <v>10</v>
@@ -8151,11 +8469,11 @@
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>chocolate en polvo</t>
+          <t>alitas de pollo</t>
         </is>
       </c>
       <c r="C45" s="0" t="n">
@@ -8171,76 +8489,76 @@
         <v>2</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>helado de vainilla</t>
+          <t>pan hot dogs</t>
         </is>
       </c>
       <c r="C46" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="E46" s="0" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F46" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>helado de fresa</t>
+          <t>salchicha</t>
         </is>
       </c>
       <c r="C47" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E47" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>helado de chocolate</t>
+          <t>chocolate en polvo</t>
         </is>
       </c>
       <c r="C48" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E48" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" s="0" t="n">
         <v>2</v>
@@ -8251,18 +8569,18 @@
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>naranja</t>
+          <t>helado de vainilla</t>
         </is>
       </c>
       <c r="C49" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>5</v>
@@ -8271,76 +8589,76 @@
         <v>2</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>platano</t>
+          <t>helado de fresa</t>
         </is>
       </c>
       <c r="C50" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" s="0" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F50" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>fresa</t>
+          <t>helado de chocolate</t>
         </is>
       </c>
       <c r="C51" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F51" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>crema</t>
+          <t>naranja</t>
         </is>
       </c>
       <c r="C52" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E52" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F52" s="0" t="n">
         <v>2</v>
@@ -8351,11 +8669,11 @@
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>crema para postre</t>
+          <t>platano</t>
         </is>
       </c>
       <c r="C53" s="0" t="n">
@@ -8365,7 +8683,7 @@
         <v>10</v>
       </c>
       <c r="E53" s="0" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F53" s="0" t="n">
         <v>2</v>
@@ -8376,21 +8694,21 @@
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>polvo para postre</t>
+          <t>fresa</t>
         </is>
       </c>
       <c r="C54" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E54" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="E54" s="0" t="n">
-        <v>5</v>
       </c>
       <c r="F54" s="0" t="n">
         <v>2</v>
@@ -8401,21 +8719,21 @@
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>galletas</t>
+          <t>crema</t>
         </is>
       </c>
       <c r="C55" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E55" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F55" s="0" t="n">
         <v>2</v>
@@ -8426,18 +8744,18 @@
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>polvo para gelatina</t>
+          <t>crema para postre</t>
         </is>
       </c>
       <c r="C56" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E56" s="0" t="n">
         <v>6</v>
@@ -8446,56 +8764,131 @@
         <v>2</v>
       </c>
       <c r="G56" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>pimienta</t>
+          <t>polvo para postre</t>
         </is>
       </c>
       <c r="C57" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F57" s="0" t="n">
         <v>2</v>
       </c>
       <c r="G57" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" s="0" t="inlineStr">
+        <is>
+          <t>galletas</t>
+        </is>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G58" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" s="0" t="inlineStr">
+        <is>
+          <t>polvo para gelatina</t>
+        </is>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" s="0" t="inlineStr">
+        <is>
+          <t>pimienta</t>
+        </is>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G60" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B58" s="0" t="inlineStr">
+      <c r="B61" s="0" t="inlineStr">
         <is>
           <t>ajos</t>
         </is>
       </c>
-      <c r="C58" s="0" t="n">
+      <c r="C61" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D58" s="0" t="n">
+      <c r="D61" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E58" s="0" t="n">
+      <c r="E61" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F58" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="G58" s="0" t="n">
+      <c r="F61" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8513,7 +8906,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -8606,61 +8999,61 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>1</v>
+        <v>200</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>4</v>
       </c>
       <c r="E7" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>4</v>
@@ -8674,10 +9067,10 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>4</v>
@@ -8691,10 +9084,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>4</v>
@@ -8708,98 +9101,98 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="0" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>4</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="0" t="n">
-        <v>5</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>5</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>200</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>3</v>
+        <v>200</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>200</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D16" s="0" t="n">
         <v>5</v>
@@ -8810,112 +9203,112 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>7</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>9</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>50</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="E22" s="0" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>15</v>
@@ -8924,52 +9317,52 @@
         <v>5</v>
       </c>
       <c r="E23" s="0" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E24" s="0" t="n">
-        <v>2</v>
+        <v>200</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>100</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>12</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>5</v>
@@ -8980,27 +9373,27 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>4</v>
@@ -9009,6 +9402,23 @@
         <v>4</v>
       </c>
       <c r="E28" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>30</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E29" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -9026,7 +9436,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -9035,7 +9445,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="11.0"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
@@ -9063,6 +9473,27 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>id empleado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>13-01-2019</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
@@ -9080,7 +9511,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -9122,223 +9553,231 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>42</v>
-      </c>
-      <c r="D2" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="E2" s="0" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>1605</v>
+        <v>1602</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>26</v>
-      </c>
-      <c r="D3" s="0"/>
+        <v>27</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="E3" s="0" t="n">
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>1606</v>
+        <v>1603</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D4" s="0"/>
       <c r="E4" s="0" t="n">
-        <v>1</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D5" s="0"/>
       <c r="E5" s="0" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D6" s="0"/>
       <c r="E6" s="0" t="n">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="D7" s="0"/>
       <c r="E7" s="0" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0" t="n">
-        <v>10</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0" t="n">
-        <v>3</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D10" s="0"/>
       <c r="E10" s="0" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D11" s="0"/>
       <c r="E11" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D12" s="0"/>
       <c r="E12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" s="0"/>
       <c r="E14" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" s="0"/>
       <c r="E15" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0"/>
       <c r="E16" s="0" t="n">
@@ -9347,58 +9786,58 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="D17" s="0"/>
       <c r="E17" s="0" t="n">
-        <v>100</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="D18" s="0"/>
       <c r="E18" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="D19" s="0"/>
       <c r="E19" s="0" t="n">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0"/>
       <c r="E20" s="0" t="n">
@@ -9407,73 +9846,73 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0"/>
       <c r="E21" s="0" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D22" s="0"/>
       <c r="E22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D23" s="0"/>
       <c r="E23" s="0" t="n">
-        <v>1</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D24" s="0"/>
       <c r="E24" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D25" s="0"/>
       <c r="E25" s="0" t="n">
@@ -9482,13 +9921,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D26" s="0"/>
       <c r="E26" s="0" t="n">
@@ -9497,13 +9936,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="B27" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D27" s="0"/>
       <c r="E27" s="0" t="n">
@@ -9512,28 +9951,28 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="B28" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="D28" s="0"/>
       <c r="E28" s="0" t="n">
-        <v>250</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D29" s="0"/>
       <c r="E29" s="0" t="n">
@@ -9542,28 +9981,28 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D30" s="0"/>
       <c r="E30" s="0" t="n">
-        <v>1</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D31" s="0"/>
       <c r="E31" s="0" t="n">
@@ -9572,106 +10011,136 @@
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="D32" s="0"/>
       <c r="E32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D33" s="0"/>
       <c r="E33" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D34" s="0"/>
       <c r="E34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="D35" s="0"/>
       <c r="E35" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D36" s="0"/>
       <c r="E36" s="0" t="n">
-        <v>150</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D37" s="0"/>
       <c r="E37" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="D38" s="0"/>
       <c r="E38" s="0" t="n">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0" t="n">
+        <v>1639</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>33</v>
+      </c>
+      <c r="D39" s="0"/>
+      <c r="E39" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0" t="n">
+        <v>1640</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="D40" s="0"/>
+      <c r="E40" s="0" t="n">
         <v>200</v>
       </c>
     </row>
@@ -9689,7 +10158,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D57"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -9879,13 +10348,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>10.0</v>
@@ -9893,111 +10362,111 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>100.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>5.0</v>
+        <v>100.0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>10.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>9.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>8.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>8.0</v>
@@ -10005,41 +10474,41 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>15.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>25.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>20.0</v>
@@ -10047,209 +10516,209 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>7.0</v>
+        <v>25.0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>6.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>15.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>8.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>30.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>27.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>26.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>12.0</v>
+        <v>27.0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>10.0</v>
+        <v>26.0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>30.0</v>
+        <v>12.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>8.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>30.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>5.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B39" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D39" s="0" t="n">
         <v>30.0</v>
@@ -10257,27 +10726,27 @@
     </row>
     <row r="40">
       <c r="A40" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>40.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B41" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D41" s="0" t="n">
         <v>30.0</v>
@@ -10285,55 +10754,55 @@
     </row>
     <row r="42">
       <c r="A42" s="0" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B42" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>30.0</v>
+        <v>40.0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B43" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>10.0</v>
+        <v>30.0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D45" s="0" t="n">
         <v>20.0</v>
@@ -10341,27 +10810,27 @@
     </row>
     <row r="46">
       <c r="A46" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>2</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D47" s="0" t="n">
         <v>20.0</v>
@@ -10369,141 +10838,169 @@
     </row>
     <row r="48">
       <c r="A48" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>10.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B50" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>15.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>20.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" s="0" t="n">
-        <v>20.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D53" s="0" t="n">
-        <v>15.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D54" s="0" t="n">
-        <v>9.0</v>
+        <v>20.0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D55" s="0" t="n">
-        <v>5.0</v>
+        <v>15.0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="B57" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>58</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="B58" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>59</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>10.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="B57" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="C57" s="0" t="n">
+      <c r="B59" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C59" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="D57" s="0" t="n">
+      <c r="D59" s="0" t="n">
         <v>5.0</v>
       </c>
     </row>
@@ -10577,7 +11074,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G116"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -13732,6 +14229,33 @@
       </c>
       <c r="G116" s="0" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="0" t="n">
+        <v>7207</v>
+      </c>
+      <c r="B117" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C117" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D117" s="0" t="inlineStr">
+        <is>
+          <t>acido muriatico</t>
+        </is>
+      </c>
+      <c r="E117" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F117" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="G117" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -13868,7 +14392,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -13898,54 +14422,54 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
@@ -13953,10 +14477,10 @@
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>5</v>
@@ -13964,21 +14488,21 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
@@ -13986,10 +14510,10 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>8</v>
@@ -13997,43 +14521,43 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>2</v>
@@ -14041,21 +14565,21 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>2</v>
@@ -14063,21 +14587,21 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>2</v>
@@ -14085,32 +14609,32 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>10</v>
@@ -14118,32 +14642,32 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>2</v>
@@ -14151,45 +14675,67 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
+        <v>897</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0" t="n">
+        <v>899</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0" t="n">
         <v>900</v>
       </c>
-      <c r="B28" s="0" t="n">
+      <c r="B30" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="C28" s="0" t="n">
+      <c r="C30" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -14711,16 +15257,16 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="6.6000000000000005"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
@@ -14755,6 +15301,50 @@
         <is>
           <t>id empleado</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>4279</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>01-12-2018</t>
+        </is>
+      </c>
+      <c r="E2" s="0"/>
+      <c r="F2" s="0" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>4280</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>01-12-2011</t>
+        </is>
+      </c>
+      <c r="E3" s="0"/>
+      <c r="F3" s="0" t="n">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -14771,14 +15361,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="8.8"/>
   </cols>
   <sheetData>
@@ -14801,74 +15391,89 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Restaurante</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>RSTR</t>
+          <t>RRHH</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Finanzas</t>
+          <t>Restaurante</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>FNZ</t>
+          <t>RSTR</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Spa</t>
+          <t>Finanzas</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>SP</t>
+          <t>FNZ</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Mantenimiento</t>
+          <t>Spa</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>MNTNM</t>
+          <t>SP</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Mantenimiento</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>MNTNM</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B6" s="0" t="inlineStr">
+      <c r="B7" s="0" t="inlineStr">
         <is>
           <t>General</t>
         </is>
       </c>
-      <c r="C6" s="0" t="inlineStr">
+      <c r="C7" s="0" t="inlineStr">
         <is>
           <t>GN</t>
         </is>
@@ -14888,7 +15493,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -14918,46 +15523,76 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Plan Europe</t>
+          <t>Plan Todo Incluido</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Hospedaje </t>
+          <t>Hospedaje, Alimentos y Bebidas</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Desayuno Buffet</t>
+          <t>Plan Europe</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Hospedaje y Opciones a elegir para desayunar (Carta)</t>
+          <t>Hospedaje </t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Desayuno Buffet</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Hospedaje y Opciones a elegir para desayunar (Carta)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B4" s="0" t="inlineStr">
+      <c r="B5" s="0" t="inlineStr">
         <is>
           <t>Desayuno Americano</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
+      <c r="C5" s="0" t="inlineStr">
         <is>
           <t>Hospedaje y Desayuno (Jugo, Fruta, Pan, Cafe y Huevos al Gusto)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>Desayuno Contiental</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>Hospedaje y Desayuno (jugo, Fruta, Pan y Cafe)</t>
         </is>
       </c>
     </row>
@@ -15177,14 +15812,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="8.8"/>
   </cols>
@@ -15227,67 +15862,71 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>sopa de verduras</t>
+          <t>pechuga pollo plancha</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>50.0</v>
-      </c>
-      <c r="D3" s="0"/>
+        <v>90.0</v>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>sandwich de jamon</t>
+          <t>sopa de verduras</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="D4" s="0"/>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>hamburguesa</t>
+          <t>sandwich de jamon</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>65.0</v>
+        <v>40.0</v>
       </c>
       <c r="D5" s="0"/>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>ensalada tennese</t>
+          <t>hamburguesa</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>70.0</v>
+        <v>65.0</v>
       </c>
       <c r="D6" s="0"/>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>crema de calabaza</t>
+          <t>ensalada tennese</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
@@ -15297,11 +15936,11 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>chilaquiles</t>
+          <t>crema de calabaza</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -15311,241 +15950,255 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>tacos de carnitas</t>
+          <t>chilaquiles</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
       <c r="D9" s="0"/>
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>enchiladas</t>
+          <t>tacos de carnitas</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>60.0</v>
+        <v>55.0</v>
       </c>
       <c r="D10" s="0"/>
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>torta al gusto</t>
+          <t>enchiladas</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>50.0</v>
+        <v>60.0</v>
       </c>
       <c r="D11" s="0"/>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>camarones al gusto</t>
+          <t>torta al gusto</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>100.0</v>
+        <v>50.0</v>
       </c>
       <c r="D12" s="0"/>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>sushi</t>
+          <t>camarones al gusto</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>80.0</v>
+        <v>100.0</v>
       </c>
       <c r="D13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>alitas</t>
+          <t>sushi</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>70.0</v>
+        <v>80.0</v>
       </c>
       <c r="D14" s="0"/>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>hot dogs</t>
+          <t>alitas</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
-        <v>60.0</v>
+        <v>70.0</v>
       </c>
       <c r="D15" s="0"/>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>brownies</t>
+          <t>hot dogs</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
-        <v>30.0</v>
+        <v>60.0</v>
       </c>
       <c r="D16" s="0"/>
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>helado</t>
+          <t>brownies</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>20.0</v>
+        <v>30.0</v>
       </c>
       <c r="D17" s="0"/>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>zumo de naranja</t>
+          <t>helado</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>25.0</v>
+        <v>20.0</v>
       </c>
       <c r="D18" s="0"/>
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>mousse de chocolate</t>
+          <t>zumo de naranja</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
-        <v>50.0</v>
+        <v>25.0</v>
       </c>
       <c r="D19" s="0"/>
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>crepa</t>
+          <t>mousse de chocolate</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>30.0</v>
+        <v>50.0</v>
       </c>
       <c r="D20" s="0"/>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>pay de queso</t>
+          <t>crepa</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>35.0</v>
+        <v>30.0</v>
       </c>
       <c r="D21" s="0"/>
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>pay de elote</t>
+          <t>pay de queso</t>
         </is>
       </c>
       <c r="C22" s="0" t="n">
-        <v>30.0</v>
+        <v>35.0</v>
       </c>
       <c r="D22" s="0"/>
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="0" t="inlineStr">
         <is>
-          <t>fresas con crema</t>
+          <t>pay de elote</t>
         </is>
       </c>
       <c r="C23" s="0" t="n">
-        <v>25.0</v>
+        <v>30.0</v>
       </c>
       <c r="D23" s="0"/>
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>tarta de fresa</t>
+          <t>fresas con crema</t>
         </is>
       </c>
       <c r="C24" s="0" t="n">
-        <v>30.0</v>
+        <v>25.0</v>
       </c>
       <c r="D24" s="0"/>
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
+        <v>29</v>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>tarta de fresa</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>30.0</v>
+      </c>
+      <c r="D25" s="0"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="B25" s="0" t="inlineStr">
+      <c r="B26" s="0" t="inlineStr">
         <is>
           <t>gelatina</t>
         </is>
       </c>
-      <c r="C25" s="0" t="n">
+      <c r="C26" s="0" t="n">
         <v>20.0</v>
       </c>
-      <c r="D25" s="0"/>
+      <c r="D26" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
@@ -15561,7 +16214,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -15849,27 +16502,27 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D21" s="0" t="n">
         <v>1</v>
@@ -15877,13 +16530,13 @@
     </row>
     <row r="22">
       <c r="A22" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="0" t="n">
         <v>1</v>
@@ -15891,13 +16544,13 @@
     </row>
     <row r="23">
       <c r="A23" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D23" s="0" t="n">
         <v>1</v>
@@ -15905,13 +16558,13 @@
     </row>
     <row r="24">
       <c r="A24" s="0" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D24" s="0" t="n">
         <v>1</v>
@@ -15919,13 +16572,13 @@
     </row>
     <row r="25">
       <c r="A25" s="0" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D25" s="0" t="n">
         <v>1</v>
@@ -15933,13 +16586,13 @@
     </row>
     <row r="26">
       <c r="A26" s="0" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D26" s="0" t="n">
         <v>1</v>
@@ -15947,13 +16600,13 @@
     </row>
     <row r="27">
       <c r="A27" s="0" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D27" s="0" t="n">
         <v>1</v>
@@ -15961,13 +16614,13 @@
     </row>
     <row r="28">
       <c r="A28" s="0" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="0" t="n">
         <v>1</v>
@@ -15975,13 +16628,13 @@
     </row>
     <row r="29">
       <c r="A29" s="0" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29" s="0" t="n">
         <v>1</v>
@@ -15989,13 +16642,13 @@
     </row>
     <row r="30">
       <c r="A30" s="0" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30" s="0" t="n">
         <v>1</v>
@@ -16003,15 +16656,29 @@
     </row>
     <row r="31">
       <c r="A31" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>23</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="B31" s="0" t="n">
+      <c r="B32" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C32" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D32" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -16029,15 +16696,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="6.6000000000000005"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="14.3"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="8.8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16054,6 +16721,21 @@
       <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Estado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Alberto Tarantino </t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Contratado</t>
         </is>
       </c>
     </row>
@@ -16071,7 +16753,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -16168,6 +16850,25 @@
         <v>12</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>redes de comunicación</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>7000.0</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
@@ -16182,7 +16883,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -16579,6 +17280,29 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="0" t="n">
+        <v>965</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>R</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>COLANTA jjj</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
   <printOptions verticalCentered="0" horizontalCentered="0" headings="0" gridLines="0"/>
@@ -16593,17 +17317,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16630,6 +17354,27 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>Fecha entrega</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>3165</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>RR</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>01-02-2018</t>
         </is>
       </c>
     </row>
@@ -16773,7 +17518,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -16782,7 +17527,7 @@
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="6.6000000000000005"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="11.0"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -16804,6 +17549,22 @@
       <c r="D1" s="0" t="inlineStr">
         <is>
           <t>Fecha asignacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>31-03-2009</t>
         </is>
       </c>
     </row>
@@ -16869,7 +17630,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -16877,7 +17638,7 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
     <col min="6" max="6" bestFit="1" customWidth="1" width="12.100000000000001"/>
@@ -16919,6 +17680,31 @@
         <is>
           <t>id_material</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -16935,7 +17721,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -16969,31 +17755,51 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Tintoreria</t>
+          <t>Internet</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Desayuno </t>
+          <t>Tintoreria</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>Desayuno </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>Despertador</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>Resraurant Bar</t>
         </is>
       </c>
     </row>
@@ -17388,7 +18194,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17427,6 +18233,16 @@
       <c r="B3" s="0" t="inlineStr">
         <is>
           <t>Cambio de sabanas</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>Limpieza de baño</t>
         </is>
       </c>
     </row>
@@ -17444,14 +18260,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="13.200000000000001"/>
     <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
     <col min="5" max="5" bestFit="1" customWidth="1" width="12.100000000000001"/>
@@ -17482,6 +18298,25 @@
         <is>
           <t>id_empleado</t>
         </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -17606,15 +18441,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
+    <col min="1" max="1" bestFit="1" customWidth="1" width="6.6000000000000005"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17631,6 +18466,32 @@
       <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Fecha</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>501</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>502</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>01-01-2009</t>
         </is>
       </c>
     </row>
@@ -17648,7 +18509,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17677,6 +18538,16 @@
       <c r="B2" s="0" t="inlineStr">
         <is>
           <t>bebida</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>alimento</t>
         </is>
       </c>
     </row>
@@ -17694,7 +18565,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17718,39 +18589,49 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>tazas</t>
+          <t>gramos</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>cucharadas</t>
+          <t>tazas</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>ml</t>
+          <t>cucharadas</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>ml</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="B5" s="0" t="inlineStr">
+      <c r="B6" s="0" t="inlineStr">
         <is>
           <t>l</t>
         </is>
@@ -17770,7 +18651,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17778,9 +18659,9 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="12.100000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="9.9"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="7.700000000000001"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="26.400000000000002"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="26.400000000000002"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -17807,6 +18688,29 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>Hora salida</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>31-03-2009</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>2000-01-01 06:50:00 UTC</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>2000-01-01 15:00:00 UTC</t>
         </is>
       </c>
     </row>
@@ -17824,14 +18728,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="16.5"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="17.6"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="8.8"/>
   </cols>
   <sheetData>
@@ -17867,66 +18771,79 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Doble</t>
+          <t>Doble Uso Indibidual</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>1000.0</v>
+        <v>700.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Con Cama Supletoria</t>
+          <t>Doble</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>1200.0</v>
+        <v>1000.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Triple</t>
+          <t>Con Cama Supletoria</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>1500.0</v>
+        <v>1200.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t> Junior Suites</t>
+          <t>Triple</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2000.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t> Junior Suites</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>2000.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B7" s="0" t="inlineStr">
+      <c r="B8" s="0" t="inlineStr">
         <is>
           <t>Suites</t>
         </is>
       </c>
-      <c r="C7" s="0" t="n">
+      <c r="C8" s="0" t="n">
         <v>3000.0</v>
       </c>
     </row>
@@ -17944,14 +18861,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
-    <col min="2" max="2" bestFit="1" customWidth="1" width="8.8"/>
+    <col min="2" max="2" bestFit="1" customWidth="1" width="9.9"/>
     <col min="3" max="3" bestFit="1" customWidth="1" width="6.6000000000000005"/>
   </cols>
   <sheetData>
@@ -17969,6 +18886,21 @@
       <c r="C1" s="0" t="inlineStr">
         <is>
           <t>Estado</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>Recepcionista</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Activo</t>
         </is>
       </c>
     </row>
@@ -17986,7 +18918,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -17994,9 +18926,9 @@
   <cols>
     <col min="1" max="1" bestFit="1" customWidth="1" width="4.4"/>
     <col min="2" max="2" bestFit="1" customWidth="1" width="7.700000000000001"/>
-    <col min="3" max="3" bestFit="1" customWidth="1" width="6.6000000000000005"/>
-    <col min="4" max="4" bestFit="1" customWidth="1" width="5.5"/>
-    <col min="5" max="5" bestFit="1" customWidth="1" width="7.700000000000001"/>
+    <col min="3" max="3" bestFit="1" customWidth="1" width="8.8"/>
+    <col min="4" max="4" bestFit="1" customWidth="1" width="12.100000000000001"/>
+    <col min="5" max="5" bestFit="1" customWidth="1" width="9.9"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -18023,6 +18955,29 @@
       <c r="E1" s="0" t="inlineStr">
         <is>
           <t>Motivo</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>Equipo</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>21-09-2009</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>Obsolescencia</t>
         </is>
       </c>
     </row>
@@ -18082,7 +19037,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -18132,87 +19087,87 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>bloody mary</t>
+          <t>martin</t>
         </is>
       </c>
       <c r="C3" s="0" t="n">
-        <v>70.0</v>
+        <v>60.0</v>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>bebida preparada sin alcohol</t>
+          <t>bebida preparada con alcohol</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>mojito</t>
+          <t>bloody mary</t>
         </is>
       </c>
       <c r="C4" s="0" t="n">
-        <v>50.0</v>
+        <v>70.0</v>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>bebida preparada con alcohol</t>
+          <t>bebida preparada sin alcohol</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>coconut</t>
+          <t>mojito</t>
         </is>
       </c>
       <c r="C5" s="0" t="n">
-        <v>40.0</v>
+        <v>50.0</v>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>bebida preparada sin alcohol</t>
+          <t>bebida preparada con alcohol</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>sacrificio maya</t>
+          <t>coconut</t>
         </is>
       </c>
       <c r="C6" s="0" t="n">
-        <v>60.0</v>
+        <v>40.0</v>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>bebida preparada con alcohol</t>
+          <t>bebida preparada sin alcohol</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>destornillador</t>
+          <t>sacrificio maya</t>
         </is>
       </c>
       <c r="C7" s="0" t="n">
-        <v>55.0</v>
+        <v>60.0</v>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
@@ -18222,15 +19177,15 @@
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>black rusian</t>
+          <t>destornillador</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
-        <v>40.0</v>
+        <v>55.0</v>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
@@ -18240,15 +19195,15 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>margarita</t>
+          <t>suite</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
-        <v>55.0</v>
+        <v>70.0</v>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
@@ -18258,15 +19213,15 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>tequila sunrise</t>
+          <t>black rusian</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>70.0</v>
+        <v>40.0</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
@@ -18276,97 +19231,97 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>manhattan</t>
+          <t>margarita</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
-        <v>60.0</v>
-      </c>
-      <c r="D11" s="0"/>
+        <v>55.0</v>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>bebida preparada sin alcohol</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>cerveza</t>
+          <t>tequila sunrise</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
-        <v>15.0</v>
+        <v>70.0</v>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>bebida con alcohol</t>
+          <t>bebida preparada con alcohol</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>coca cola</t>
+          <t>manhattan</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>12.0</v>
-      </c>
-      <c r="D13" s="0" t="inlineStr">
-        <is>
-          <t>bebida sin alcohol</t>
-        </is>
-      </c>
+        <v>60.0</v>
+      </c>
+      <c r="D13" s="0"/>
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>jugo del valle</t>
+          <t>cerveza</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>10.0</v>
+        <v>15.0</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>bebida sin alcohol</t>
+          <t>bebida con alcohol</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>agua fresca</t>
+          <t>coca cola</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
-        <v>8.0</v>
+        <v>12.0</v>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>bebida preparada sin alcohol</t>
+          <t>bebida sin alcohol</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>agua enbotellada</t>
+          <t>jugo del valle</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -18380,33 +19335,33 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>jugo de frutas</t>
+          <t>agua fresca</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>bebida sin alcohol</t>
+          <t>bebida preparada sin alcohol</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>sprite</t>
+          <t>agua enbotellada</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
@@ -18416,17 +19371,53 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>fanta</t>
+          <t>jugo de frutas</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="D19" s="0"/>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>bebida sin alcohol</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>sprite</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>bebida sin alcohol</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>fanta</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D21" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
